--- a/biology/Botanique/Digitaria_ischaemum/Digitaria_ischaemum.xlsx
+++ b/biology/Botanique/Digitaria_ischaemum/Digitaria_ischaemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Digitaria ischaemum, la digitaire filiforme, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Eurasie.
 Cette plante est une mauvaise herbe fréquente, notamment aux États-Unis, dans les pelouses, terrains de golf et d'athlétisme. 
 Noms vernaculaires
-digitaire filiforme, digitaire couchée, digitaire ischème, digitaire astringente, digitaire glabre, digitaire, petite digitaire[2],[3].
+digitaire filiforme, digitaire couchée, digitaire ischème, digitaire astringente, digitaire glabre, digitaire, petite digitaire,.
 </t>
         </is>
       </c>
@@ -514,12 +526,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Digitaria ischaemum est une plante herbacée annuelle, cespiteuse, aux chaumes géniculés ascendants ou décombants de 10 à 50 cm de long, comptant de 2 à 4 nœuds.
 L'inflorescence digitée est composée de 2 à 4 racèmes spiciformes. 
 Les épillets, elliptiques, comprimés dorsalement, de 2 à 2,5 mm de long, comprennent un fleuron basal stérile et un fleuron fertile sans extension du rachillet. A maturité ils se détachent entier et constituent l'unité de dissémination ou semence. 
-Le fruit est un caryopse au hile punctiforme, enfermés dans ses deux glumelles[4],[3].
+Le fruit est un caryopse au hile punctiforme, enfermés dans ses deux glumelles,.
 </t>
         </is>
       </c>
@@ -548,12 +562,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Digitaria ischaemum s'étend en Eurasie, de l'Europe de l'Ouest au Japon. On la rencontre notamment en Russie, en Sibérie et dans l'Extrême-Orient russe, dans l'Asie centrale et la région du Caucase, en Asie occidentale (Iran, Turquie), au Pakistan, ainsi qu'en Chine et en Extrême-Orient[5].
-En Chine l'espèce est présente dans les provinces de Anhui, Fujian, Gansu, Hebei, Heilongjiang, Henan, Jiangsu, Jilin, Liaoning, Nei Mongol, Ningxia, Shaanxi, Shandong, Shanxi, Sichuan, Xinjiang, Xizang[6].
-La plante s'est répandue dans la plupart des régions tempérées et tempérées chaudes du monde, avec une distribution subcosmopolite. Elle s'est naturalisée notamment en Amérique du Nord (Canada, États-Unis) et dans les Caraïbes, ainsi qu'en Australie et en Nouvelle-Zélande[4], au Bhoutan et au Chili[5].
-C'est une espèce qui préfère les stations herbeuses ouvertes[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Digitaria ischaemum s'étend en Eurasie, de l'Europe de l'Ouest au Japon. On la rencontre notamment en Russie, en Sibérie et dans l'Extrême-Orient russe, dans l'Asie centrale et la région du Caucase, en Asie occidentale (Iran, Turquie), au Pakistan, ainsi qu'en Chine et en Extrême-Orient.
+En Chine l'espèce est présente dans les provinces de Anhui, Fujian, Gansu, Hebei, Heilongjiang, Henan, Jiangsu, Jilin, Liaoning, Nei Mongol, Ningxia, Shaanxi, Shandong, Shanxi, Sichuan, Xinjiang, Xizang.
+La plante s'est répandue dans la plupart des régions tempérées et tempérées chaudes du monde, avec une distribution subcosmopolite. Elle s'est naturalisée notamment en Amérique du Nord (Canada, États-Unis) et dans les Caraïbes, ainsi qu'en Australie et en Nouvelle-Zélande, au Bhoutan et au Chili.
+C'est une espèce qui préfère les stations herbeuses ouvertes.
 </t>
         </is>
       </c>
@@ -584,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (25 octobre 2017)[7] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 octobre 2017) :
 Digitaria asiatica Tzvelev
 Digitaria glabra (Schrad.) P.Beauv.
 Digitaria humifusa Pers.
@@ -617,10 +638,7 @@
 Syntherisma humifusa (Pers.) Rydb.
 Syntherisma ischaemum (Schreb.) Nash
 Syntherisma linearis var. mississipiensis (Scribn.) Nash
-Liste des variétés
-Selon The Plant List            (25 octobre 2017)[1] :
-variété Digitaria ischaemum var. hirta (Junge) Henrard
-variété Digitaria ischaemum var. mississippiensis (Gatt.) Fernald</t>
+</t>
         </is>
       </c>
     </row>
@@ -645,13 +663,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Importance économique</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La digitaire filiforme est une mauvaise herbe des cultures, redoutée en particulier dans les pelouses en raison de sa capacité à survivre à de faibles hauteurs de tonte, et à s'adapter à des sols de mauvaise qualité et des climats secs et chauds[8].
-</t>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 octobre 2017) :
+variété Digitaria ischaemum var. hirta (Junge) Henrard
+variété Digitaria ischaemum var. mississippiensis (Gatt.) Fernald</t>
         </is>
       </c>
     </row>
@@ -676,12 +701,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Importance économique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La digitaire filiforme est une mauvaise herbe des cultures, redoutée en particulier dans les pelouses en raison de sa capacité à survivre à de faibles hauteurs de tonte, et à s'adapter à des sols de mauvaise qualité et des climats secs et chauds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Digitaria_ischaemum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digitaria_ischaemum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Résistance aux herbicides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des populations de Digitaria ischaemum ont été signalées comme résistantes à des herbicides aux États-Unis en 1996 et en 2002. Dans le premier cas il s'agissait de résistance au fénoxaprop-P-éthyle, herbicide du groupe A (inhibiteurs de l'ACCase) de la classification HRAC des herbicides, dans des pelouses du New Jersey, et dans le deuxième cas de résistance au quinclorac, herbicide du groupe O (auxines synthétiques), dans des rizières de Californie[9],[10],[11].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des populations de Digitaria ischaemum ont été signalées comme résistantes à des herbicides aux États-Unis en 1996 et en 2002. Dans le premier cas il s'agissait de résistance au fénoxaprop-P-éthyle, herbicide du groupe A (inhibiteurs de l'ACCase) de la classification HRAC des herbicides, dans des pelouses du New Jersey, et dans le deuxième cas de résistance au quinclorac, herbicide du groupe O (auxines synthétiques), dans des rizières de Californie.
 </t>
         </is>
       </c>
